--- a/biology/Botanique/Parc_d'Isle/Parc_d'Isle.xlsx
+++ b/biology/Botanique/Parc_d'Isle/Parc_d'Isle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_d%27Isle</t>
+          <t>Parc_d'Isle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Parc d'Isle est un parc public aménagé de 48 hectares situé dans le faubourg d'Isle, à Saint-Quentin, dans le département de l'Aisne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_d%27Isle</t>
+          <t>Parc_d'Isle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Un parc paysager et de loisirs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le Parc d'Isle est agrémenté de plantations dont de nombreuses essences d'arbres, d’un jardin de plantes médicinales, d’une fermette d'animaux domestiques, d’aires de pique-nique, de jeux pour enfants et de plusieurs maisons, lieux privilégiés pour des travaux pédagogiques et expositions :
 la Maison de l’environnement : lieu d'expositions ;
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_d%27Isle</t>
+          <t>Parc_d'Isle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Un parc animalier</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au parc d'Isle, la fermette, située à proximité de la Maison de la nature, comprenant des pigeons de toutes races, des animaux de basse-cour, des chèvres, des brebis, des agneaux, des ânes, des lapins, des cochons d'Inde, des oies, des paons... a été transformée, en 2017, en parc animalier avec des chameaux de Bactriane, des wallabies, des alpagas, des zébus nains, des aras bleus, des émeus ... auxquels viennent s"ajouter les animaux des marais : canards, poules d’eau, poissons...
 Depuis 2017, parc d’Isle est membre de l’Association française des parcs zoologiques (AFdPZ).
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parc_d%27Isle</t>
+          <t>Parc_d'Isle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Une réserve naturelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc abrite aussi le centre de sauvegarde de la faune sauvage, où sont soignés les oiseaux sauvages blessés ou malades.
 Le parc d’Isle borde la Réserve naturelle nationale des marais d'Isle. Ce site naturel protégé par le programme « Natura 2000 », est un habitat naturel pour de nombreuses espèces animales et végétales. Il est alimenté en eau par la Somme, qui prend sa source à 12 kilomètres de Saint-Quentin.
